--- a/data/mcq questions.xlsx
+++ b/data/mcq questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation-Project\graduation-project--master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\graduation-project--master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A053D3-264C-46E7-A173-9D8721BF7A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DE8B2-A351-4B29-B472-EA0BC7AA85CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFB9094A-7FF6-4941-BCA7-01EBA3572DCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFB9094A-7FF6-4941-BCA7-01EBA3572DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>question</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>display</t>
-  </si>
-  <si>
-    <t>course_id</t>
   </si>
   <si>
     <t>What does HTML stand for?</t>
@@ -449,22 +446,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F68A65B-0FC2-4C62-9D64-1E00817ADA47}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J1:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.21875" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,25 +489,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -519,30 +513,27 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -551,30 +542,27 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -583,30 +571,27 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -615,30 +600,27 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -647,30 +629,27 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -679,30 +658,27 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -711,13 +687,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
